--- a/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
+++ b/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Stories</t>
   </si>
@@ -160,6 +160,12 @@
   <si>
     <t>Estimate (Point)</t>
   </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Tôi là học sinh, tôi muốn đăng nhập vào trang sinh viên để xem các môn học, kì học mà tôi tham gia.</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +225,30 @@
         <bgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -232,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -247,6 +277,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,13 +616,14 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="133.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
@@ -591,12 +633,18 @@
       <c r="B1" t="s">
         <v>35</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:16384">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12">
         <v>2</v>
       </c>
     </row>
@@ -607,6 +655,9 @@
       <c r="B3" s="9">
         <v>6</v>
       </c>
+      <c r="C3" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:16384">
       <c r="A4" s="5" t="s">
@@ -614,6 +665,9 @@
       </c>
       <c r="B4" s="8">
         <v>4</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
@@ -623,6 +677,9 @@
       <c r="B5" s="9">
         <v>5</v>
       </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="5" t="s">
@@ -630,6 +687,9 @@
       </c>
       <c r="B6" s="8">
         <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
@@ -639,12 +699,14 @@
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -17029,13 +17091,19 @@
       <c r="B8" s="8">
         <v>2</v>
       </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:16384">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16384">
@@ -17045,6 +17113,9 @@
       <c r="B10" s="8">
         <v>4</v>
       </c>
+      <c r="C10" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:16384">
       <c r="A11" s="6" t="s">
@@ -17052,6 +17123,9 @@
       </c>
       <c r="B11" s="9">
         <v>6</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:16384">
@@ -17061,12 +17135,18 @@
       <c r="B12" s="8">
         <v>3</v>
       </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:16384">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12">
         <v>2</v>
       </c>
     </row>
@@ -17077,6 +17157,9 @@
       <c r="B14" s="8">
         <v>7</v>
       </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:16384">
       <c r="A15" s="6" t="s">
@@ -17084,6 +17167,9 @@
       </c>
       <c r="B15" s="9">
         <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16384">
@@ -17093,105 +17179,138 @@
       <c r="B16" s="8">
         <v>2</v>
       </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="9">
         <v>3</v>
       </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="8">
         <v>6</v>
       </c>
+      <c r="C18" s="13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="9">
         <v>5</v>
       </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8">
         <v>3</v>
       </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
       </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
       </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="8">
         <v>5</v>
       </c>
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="9">
         <v>3</v>
       </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2</v>
+      <c r="C26" s="13">
+        <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
+++ b/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Stories</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Tôi là học sinh, tôi muốn đăng nhập vào trang sinh viên để xem các môn học, kì học mà tôi tham gia.</t>
+  </si>
+  <si>
+    <t>DucPH</t>
+  </si>
+  <si>
+    <t>Stories (Mỗi người chọn cho mình 8 Point)</t>
   </si>
 </sst>
 </file>
@@ -615,9 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -628,7 +632,7 @@
   <sheetData>
     <row r="1" spans="1:16384">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -646,6 +650,9 @@
       </c>
       <c r="C2" s="12">
         <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16384">
@@ -17105,6 +17112,9 @@
       <c r="C9" s="12">
         <v>2</v>
       </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:16384">
       <c r="A10" s="5" t="s">
@@ -17182,8 +17192,11 @@
       <c r="C16" s="12">
         <v>2</v>
       </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -17193,8 +17206,11 @@
       <c r="C17" s="14">
         <v>1</v>
       </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -17205,7 +17221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -17216,7 +17232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -17227,7 +17243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -17238,7 +17254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -17249,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
@@ -17259,8 +17275,11 @@
       <c r="C23" s="14">
         <v>1</v>
       </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -17270,8 +17289,11 @@
       <c r="C24" s="12">
         <v>2</v>
       </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -17281,8 +17303,11 @@
       <c r="C25" s="14">
         <v>1</v>
       </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -17293,11 +17318,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -17306,6 +17331,9 @@
       </c>
       <c r="C28" s="4">
         <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
+++ b/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Stories</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Stories (Mỗi người chọn cho mình 8 Point)</t>
+  </si>
+  <si>
+    <t>ThaoLTT</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -686,6 +691,9 @@
       </c>
       <c r="C5" s="12">
         <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
@@ -17126,6 +17134,9 @@
       <c r="C10" s="13">
         <v>3</v>
       </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:16384">
       <c r="A11" s="6" t="s">
@@ -17159,6 +17170,9 @@
       <c r="C13" s="12">
         <v>2</v>
       </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:16384">
       <c r="A14" s="7" t="s">
@@ -17169,6 +17183,9 @@
       </c>
       <c r="C14" s="14">
         <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16384">

--- a/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
+++ b/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Stories</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>ThaoLTT</t>
   </si>
+  <si>
+    <t>HungPM</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +291,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +628,7 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +656,7 @@
       <c r="B2" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -667,7 +670,7 @@
       <c r="B3" s="9">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>3</v>
       </c>
     </row>
@@ -678,7 +681,7 @@
       <c r="B4" s="8">
         <v>4</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
     </row>
@@ -689,7 +692,7 @@
       <c r="B5" s="9">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>2</v>
       </c>
       <c r="D5" t="s">
@@ -703,7 +706,7 @@
       <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
     </row>
@@ -714,14 +717,16 @@
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -17106,8 +17111,11 @@
       <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:16384">
@@ -17117,7 +17125,7 @@
       <c r="B9" s="9">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
       <c r="D9" t="s">
@@ -17131,7 +17139,7 @@
       <c r="B10" s="8">
         <v>4</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>3</v>
       </c>
       <c r="D10" t="s">
@@ -17145,8 +17153,11 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:16384">
@@ -17156,8 +17167,11 @@
       <c r="B12" s="8">
         <v>3</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:16384">
@@ -17167,7 +17181,7 @@
       <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>2</v>
       </c>
       <c r="D13" t="s">
@@ -17181,7 +17195,7 @@
       <c r="B14" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1</v>
       </c>
       <c r="D14" t="s">
@@ -17195,8 +17209,11 @@
       <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:16384">
@@ -17206,7 +17223,7 @@
       <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>2</v>
       </c>
       <c r="D16" t="s">
@@ -17220,7 +17237,7 @@
       <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" t="s">
@@ -17234,7 +17251,7 @@
       <c r="B18" s="8">
         <v>6</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>3</v>
       </c>
     </row>
@@ -17245,7 +17262,7 @@
       <c r="B19" s="9">
         <v>5</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17256,7 +17273,7 @@
       <c r="B20" s="8">
         <v>3</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17267,7 +17284,7 @@
       <c r="B21" s="9">
         <v>3</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17278,7 +17295,7 @@
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17289,7 +17306,7 @@
       <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" t="s">
@@ -17303,7 +17320,7 @@
       <c r="B24" s="8">
         <v>5</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
       <c r="D24" t="s">
@@ -17317,7 +17334,7 @@
       <c r="B25" s="9">
         <v>3</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>1</v>
       </c>
       <c r="D25" t="s">
@@ -17331,7 +17348,7 @@
       <c r="B26" s="8">
         <v>2</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>3</v>
       </c>
     </row>

--- a/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
+++ b/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>Stories</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>HungPM</t>
+  </si>
+  <si>
+    <t>HoangLTM</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,6 +687,9 @@
       <c r="C4" s="12">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:16384">
       <c r="A5" s="6" t="s">
@@ -708,6 +714,9 @@
       </c>
       <c r="C6" s="13">
         <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
@@ -17265,6 +17274,9 @@
       <c r="C19" s="13">
         <v>1</v>
       </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
@@ -17275,6 +17287,9 @@
       </c>
       <c r="C20" s="13">
         <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -17287,6 +17302,9 @@
       <c r="C21" s="13">
         <v>1</v>
       </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
@@ -17297,6 +17315,9 @@
       </c>
       <c r="C22" s="13">
         <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">

--- a/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
+++ b/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Stories</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>HoangLTM</t>
+  </si>
+  <si>
+    <t>VietPD</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -675,6 +678,9 @@
       </c>
       <c r="C3" s="12">
         <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16384">
@@ -17263,6 +17269,9 @@
       <c r="C18" s="12">
         <v>3</v>
       </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
@@ -17371,6 +17380,9 @@
       </c>
       <c r="C26" s="12">
         <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4">

--- a/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
+++ b/Documents/fatg-gc0501-s4-g4_Backlog_v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="5190"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="5190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product BackLog" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Stories</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Tôi là người dùng tôi muốn sửa thông tin cá nhân . Avarta, Email, Địa chỉ, Ngày sinh (HungPM giúp ThaoLTT)</t>
+  </si>
+  <si>
+    <t>Quản lý phần FAQs</t>
+  </si>
+  <si>
+    <t>Báo cáo, biểu đồ</t>
   </si>
 </sst>
 </file>
@@ -649,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1049,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Z1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1230,8 +1236,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1"/>
-    <row r="15" spans="1:12" ht="15" customHeight="1"/>
+    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
     <row r="16" spans="1:12" ht="15" customHeight="1"/>
     <row r="17" ht="15" customHeight="1"/>
     <row r="18" ht="15" customHeight="1"/>
